--- a/PreProcessingTools/Data.xlsx
+++ b/PreProcessingTools/Data.xlsx
@@ -20,13 +20,13 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="32" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3634" uniqueCount="1159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3633" uniqueCount="1159">
   <si>
     <t>Image</t>
   </si>
@@ -3627,7 +3627,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9892,7 +9891,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable17" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable17" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -10587,12 +10586,14 @@
   <dimension ref="A1:E726"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="B239" sqref="B239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
     <col min="4" max="4" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
   </cols>
@@ -10614,7 +10615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
@@ -10631,7 +10632,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>362</v>
       </c>
@@ -10648,7 +10649,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>468</v>
       </c>
@@ -10665,7 +10666,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>54</v>
       </c>
@@ -10682,7 +10683,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>347</v>
       </c>
@@ -10699,7 +10700,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>365</v>
       </c>
@@ -10716,7 +10717,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>286</v>
       </c>
@@ -10733,7 +10734,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>451</v>
       </c>
@@ -10750,7 +10751,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -10767,7 +10768,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>671</v>
       </c>
@@ -10784,7 +10785,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>380</v>
       </c>
@@ -10801,7 +10802,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -10818,7 +10819,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>680</v>
       </c>
@@ -10835,7 +10836,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>527</v>
       </c>
@@ -10852,7 +10853,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>869</v>
       </c>
@@ -10869,7 +10870,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -10886,7 +10887,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>882</v>
       </c>
@@ -10903,7 +10904,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>472</v>
       </c>
@@ -10920,7 +10921,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>887</v>
       </c>
@@ -10937,7 +10938,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>398</v>
       </c>
@@ -10954,7 +10955,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>78</v>
       </c>
@@ -10971,7 +10972,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>451</v>
       </c>
@@ -10988,7 +10989,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>150</v>
       </c>
@@ -11005,7 +11006,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>464</v>
       </c>
@@ -11022,7 +11023,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>94</v>
       </c>
@@ -11039,7 +11040,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>887</v>
       </c>
@@ -11056,7 +11057,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>95</v>
       </c>
@@ -11073,7 +11074,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>353</v>
       </c>
@@ -11090,7 +11091,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>704</v>
       </c>
@@ -11107,7 +11108,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -11124,7 +11125,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>353</v>
       </c>
@@ -11141,7 +11142,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>417</v>
       </c>
@@ -11158,7 +11159,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>1014</v>
       </c>
@@ -11175,7 +11176,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>362</v>
       </c>
@@ -11192,7 +11193,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>368</v>
       </c>
@@ -11209,7 +11210,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>641</v>
       </c>
@@ -11226,7 +11227,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>704</v>
       </c>
@@ -11243,7 +11244,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>353</v>
       </c>
@@ -11260,7 +11261,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>101</v>
       </c>
@@ -11277,7 +11278,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>104</v>
       </c>
@@ -11294,7 +11295,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>496</v>
       </c>
@@ -11311,7 +11312,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>101</v>
       </c>
@@ -11328,7 +11329,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>734</v>
       </c>
@@ -11345,7 +11346,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>132</v>
       </c>
@@ -11362,7 +11363,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>143</v>
       </c>
@@ -11379,7 +11380,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>362</v>
       </c>
@@ -11396,7 +11397,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>150</v>
       </c>
@@ -11413,7 +11414,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>64</v>
       </c>
@@ -11430,7 +11431,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>641</v>
       </c>
@@ -11447,7 +11448,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>16</v>
       </c>
@@ -11464,7 +11465,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>966</v>
       </c>
@@ -11481,7 +11482,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>143</v>
       </c>
@@ -11498,7 +11499,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>5</v>
       </c>
@@ -11515,7 +11516,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>704</v>
       </c>
@@ -11532,7 +11533,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>885</v>
       </c>
@@ -11549,7 +11550,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>286</v>
       </c>
@@ -11566,7 +11567,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>73</v>
       </c>
@@ -11583,7 +11584,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>562</v>
       </c>
@@ -11600,7 +11601,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>558</v>
       </c>
@@ -11617,7 +11618,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>208</v>
       </c>
@@ -11634,7 +11635,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>19</v>
       </c>
@@ -11651,7 +11652,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>154</v>
       </c>
@@ -11668,7 +11669,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>398</v>
       </c>
@@ -11685,7 +11686,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>52</v>
       </c>
@@ -11702,7 +11703,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>116</v>
       </c>
@@ -11719,7 +11720,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>49</v>
       </c>
@@ -11736,7 +11737,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>574</v>
       </c>
@@ -11753,7 +11754,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>208</v>
       </c>
@@ -11770,7 +11771,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>326</v>
       </c>
@@ -11787,7 +11788,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>118</v>
       </c>
@@ -11804,7 +11805,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>120</v>
       </c>
@@ -11821,7 +11822,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>273</v>
       </c>
@@ -11838,7 +11839,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>286</v>
       </c>
@@ -11855,7 +11856,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>78</v>
       </c>
@@ -11872,7 +11873,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>52</v>
       </c>
@@ -11889,7 +11890,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>487</v>
       </c>
@@ -11906,7 +11907,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>856</v>
       </c>
@@ -11923,7 +11924,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>32</v>
       </c>
@@ -11940,7 +11941,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>380</v>
       </c>
@@ -11957,7 +11958,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>273</v>
       </c>
@@ -11974,7 +11975,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>143</v>
       </c>
@@ -11991,7 +11992,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>856</v>
       </c>
@@ -12008,7 +12009,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>135</v>
       </c>
@@ -12025,7 +12026,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>314</v>
       </c>
@@ -12042,7 +12043,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>135</v>
       </c>
@@ -12059,7 +12060,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>5</v>
       </c>
@@ -12076,7 +12077,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>32</v>
       </c>
@@ -12093,7 +12094,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>52</v>
       </c>
@@ -12110,7 +12111,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>78</v>
       </c>
@@ -12127,7 +12128,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>365</v>
       </c>
@@ -12144,7 +12145,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>504</v>
       </c>
@@ -12161,7 +12162,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>69</v>
       </c>
@@ -12178,7 +12179,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>863</v>
       </c>
@@ -12195,7 +12196,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>914</v>
       </c>
@@ -12212,7 +12213,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>73</v>
       </c>
@@ -12229,7 +12230,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>49</v>
       </c>
@@ -12246,7 +12247,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>365</v>
       </c>
@@ -12263,7 +12264,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>164</v>
       </c>
@@ -12280,7 +12281,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>13</v>
       </c>
@@ -12297,7 +12298,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>13</v>
       </c>
@@ -12314,7 +12315,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>120</v>
       </c>
@@ -12331,7 +12332,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>923</v>
       </c>
@@ -12348,7 +12349,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>286</v>
       </c>
@@ -12365,7 +12366,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>52</v>
       </c>
@@ -12382,7 +12383,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>13</v>
       </c>
@@ -12399,7 +12400,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>281</v>
       </c>
@@ -12416,7 +12417,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>29</v>
       </c>
@@ -12433,7 +12434,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>52</v>
       </c>
@@ -12450,7 +12451,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>875</v>
       </c>
@@ -12467,7 +12468,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>576</v>
       </c>
@@ -12484,7 +12485,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>78</v>
       </c>
@@ -12501,7 +12502,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>64</v>
       </c>
@@ -12518,7 +12519,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>143</v>
       </c>
@@ -12535,7 +12536,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>52</v>
       </c>
@@ -12552,7 +12553,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>52</v>
       </c>
@@ -12569,7 +12570,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>908</v>
       </c>
@@ -12586,7 +12587,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>665</v>
       </c>
@@ -12603,7 +12604,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>19</v>
       </c>
@@ -12620,7 +12621,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>483</v>
       </c>
@@ -12637,7 +12638,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>674</v>
       </c>
@@ -12654,7 +12655,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>78</v>
       </c>
@@ -12671,7 +12672,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>143</v>
       </c>
@@ -12688,7 +12689,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>945</v>
       </c>
@@ -12705,7 +12706,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>485</v>
       </c>
@@ -12722,7 +12723,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>19</v>
       </c>
@@ -12739,7 +12740,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
@@ -12756,7 +12757,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>19</v>
       </c>
@@ -12773,7 +12774,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>102</v>
       </c>
@@ -12790,7 +12791,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>816</v>
       </c>
@@ -12807,7 +12808,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>143</v>
       </c>
@@ -12824,7 +12825,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>164</v>
       </c>
@@ -12841,7 +12842,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>143</v>
       </c>
@@ -12858,7 +12859,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>36</v>
       </c>
@@ -12875,7 +12876,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>942</v>
       </c>
@@ -12892,7 +12893,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>46</v>
       </c>
@@ -12909,7 +12910,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>78</v>
       </c>
@@ -12926,7 +12927,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>16</v>
       </c>
@@ -12943,7 +12944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>157</v>
       </c>
@@ -12960,7 +12961,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>665</v>
       </c>
@@ -12977,7 +12978,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>488</v>
       </c>
@@ -12994,7 +12995,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>347</v>
       </c>
@@ -13011,7 +13012,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>576</v>
       </c>
@@ -13028,7 +13029,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>816</v>
       </c>
@@ -13045,7 +13046,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>29</v>
       </c>
@@ -13062,7 +13063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>164</v>
       </c>
@@ -13079,7 +13080,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>746</v>
       </c>
@@ -13096,7 +13097,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>504</v>
       </c>
@@ -13113,7 +13114,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>398</v>
       </c>
@@ -13130,7 +13131,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>13</v>
       </c>
@@ -13147,7 +13148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>671</v>
       </c>
@@ -13164,7 +13165,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>674</v>
       </c>
@@ -13181,7 +13182,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>488</v>
       </c>
@@ -13198,7 +13199,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>273</v>
       </c>
@@ -13215,7 +13216,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>16</v>
       </c>
@@ -13232,7 +13233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>135</v>
       </c>
@@ -13249,7 +13250,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>667</v>
       </c>
@@ -13266,7 +13267,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>504</v>
       </c>
@@ -13283,7 +13284,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>164</v>
       </c>
@@ -13300,7 +13301,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>81</v>
       </c>
@@ -13317,7 +13318,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>849</v>
       </c>
@@ -13334,7 +13335,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>468</v>
       </c>
@@ -13351,7 +13352,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>286</v>
       </c>
@@ -13368,7 +13369,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>64</v>
       </c>
@@ -13385,7 +13386,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>992</v>
       </c>
@@ -13402,7 +13403,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>137</v>
       </c>
@@ -13419,7 +13420,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>69</v>
       </c>
@@ -13436,7 +13437,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>339</v>
       </c>
@@ -13453,7 +13454,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>667</v>
       </c>
@@ -13470,7 +13471,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>674</v>
       </c>
@@ -13487,7 +13488,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>398</v>
       </c>
@@ -13504,7 +13505,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>580</v>
       </c>
@@ -13521,7 +13522,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>578</v>
       </c>
@@ -13538,7 +13539,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>680</v>
       </c>
@@ -13555,7 +13556,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>562</v>
       </c>
@@ -13572,7 +13573,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>143</v>
       </c>
@@ -13589,7 +13590,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>19</v>
       </c>
@@ -13606,7 +13607,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>157</v>
       </c>
@@ -13623,7 +13624,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>669</v>
       </c>
@@ -13640,7 +13641,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>54</v>
       </c>
@@ -13657,7 +13658,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>10</v>
       </c>
@@ -13674,7 +13675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>135</v>
       </c>
@@ -13691,7 +13692,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>19</v>
       </c>
@@ -13708,7 +13709,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>116</v>
       </c>
@@ -13725,7 +13726,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>365</v>
       </c>
@@ -13742,7 +13743,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>54</v>
       </c>
@@ -13759,7 +13760,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>13</v>
       </c>
@@ -13776,7 +13777,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>487</v>
       </c>
@@ -13793,7 +13794,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>746</v>
       </c>
@@ -13810,7 +13811,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>160</v>
       </c>
@@ -13827,7 +13828,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>29</v>
       </c>
@@ -13844,7 +13845,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>286</v>
       </c>
@@ -13861,7 +13862,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>154</v>
       </c>
@@ -13878,7 +13879,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>135</v>
       </c>
@@ -13895,7 +13896,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>122</v>
       </c>
@@ -13912,7 +13913,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>137</v>
       </c>
@@ -13929,7 +13930,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>52</v>
       </c>
@@ -13946,7 +13947,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>669</v>
       </c>
@@ -13963,7 +13964,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>13</v>
       </c>
@@ -13980,7 +13981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>5</v>
       </c>
@@ -13997,7 +13998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>132</v>
       </c>
@@ -14014,7 +14015,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>192</v>
       </c>
@@ -14031,7 +14032,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>122</v>
       </c>
@@ -14048,7 +14049,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>64</v>
       </c>
@@ -14065,7 +14066,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>273</v>
       </c>
@@ -14082,7 +14083,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>150</v>
       </c>
@@ -14099,7 +14100,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>110</v>
       </c>
@@ -14116,7 +14117,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>113</v>
       </c>
@@ -14133,7 +14134,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>314</v>
       </c>
@@ -14150,7 +14151,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>124</v>
       </c>
@@ -14167,7 +14168,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>765</v>
       </c>
@@ -14184,7 +14185,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>32</v>
       </c>
@@ -14201,7 +14202,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>122</v>
       </c>
@@ -14218,7 +14219,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>211</v>
       </c>
@@ -14235,7 +14236,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>473</v>
       </c>
@@ -14252,7 +14253,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>172</v>
       </c>
@@ -14269,7 +14270,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>244</v>
       </c>
@@ -14286,7 +14287,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>19</v>
       </c>
@@ -14303,7 +14304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>244</v>
       </c>
@@ -14320,7 +14321,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>200</v>
       </c>
@@ -14337,7 +14338,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>269</v>
       </c>
@@ -14354,7 +14355,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>200</v>
       </c>
@@ -14371,7 +14372,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>120</v>
       </c>
@@ -14388,7 +14389,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>200</v>
       </c>
@@ -14405,7 +14406,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>192</v>
       </c>
@@ -14422,7 +14423,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>5</v>
       </c>
@@ -14439,7 +14440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>189</v>
       </c>
@@ -14456,7 +14457,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>211</v>
       </c>
@@ -14473,7 +14474,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>124</v>
       </c>
@@ -14490,7 +14491,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>187</v>
       </c>
@@ -14507,7 +14508,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>192</v>
       </c>
@@ -14524,7 +14525,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>211</v>
       </c>
@@ -14541,7 +14542,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>298</v>
       </c>
@@ -14558,7 +14559,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>496</v>
       </c>
@@ -14575,7 +14576,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>157</v>
       </c>
@@ -14592,7 +14593,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>172</v>
       </c>
@@ -14609,7 +14610,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>219</v>
       </c>
@@ -14626,7 +14627,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>222</v>
       </c>
@@ -14643,12 +14644,12 @@
         <v>548</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>648</v>
+      <c r="B239" s="2">
+        <v>4294967295</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>205</v>
@@ -14660,7 +14661,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>466</v>
       </c>
@@ -14677,7 +14678,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>29</v>
       </c>
@@ -14694,7 +14695,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>485</v>
       </c>
@@ -14711,7 +14712,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>13</v>
       </c>
@@ -14728,7 +14729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>124</v>
       </c>
@@ -14745,7 +14746,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>185</v>
       </c>
@@ -14762,7 +14763,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>189</v>
       </c>
@@ -14779,7 +14780,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>211</v>
       </c>
@@ -14796,7 +14797,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>988</v>
       </c>
@@ -14813,7 +14814,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>225</v>
       </c>
@@ -14830,7 +14831,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>126</v>
       </c>
@@ -14847,7 +14848,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>249</v>
       </c>
@@ -14864,7 +14865,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>187</v>
       </c>
@@ -14881,7 +14882,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>189</v>
       </c>
@@ -14898,7 +14899,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>734</v>
       </c>
@@ -14915,7 +14916,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>641</v>
       </c>
@@ -14932,7 +14933,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>189</v>
       </c>
@@ -14949,7 +14950,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>746</v>
       </c>
@@ -14966,7 +14967,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>172</v>
       </c>
@@ -14983,7 +14984,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>620</v>
       </c>
@@ -15000,7 +15001,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>189</v>
       </c>
@@ -15017,7 +15018,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>189</v>
       </c>
@@ -15034,7 +15035,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>211</v>
       </c>
@@ -15051,7 +15052,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>249</v>
       </c>
@@ -15068,7 +15069,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>504</v>
       </c>
@@ -15085,7 +15086,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>208</v>
       </c>
@@ -15102,7 +15103,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>124</v>
       </c>
@@ -15119,7 +15120,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>578</v>
       </c>
@@ -15136,7 +15137,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>222</v>
       </c>
@@ -15153,7 +15154,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>269</v>
       </c>
@@ -15170,7 +15171,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>124</v>
       </c>
@@ -15187,7 +15188,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>262</v>
       </c>
@@ -15204,7 +15205,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>137</v>
       </c>
@@ -15221,7 +15222,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>208</v>
       </c>
@@ -15238,7 +15239,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>208</v>
       </c>
@@ -15255,7 +15256,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>765</v>
       </c>
@@ -15272,7 +15273,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>231</v>
       </c>
@@ -15289,7 +15290,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>120</v>
       </c>
@@ -15306,7 +15307,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>211</v>
       </c>
@@ -15323,7 +15324,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>251</v>
       </c>
@@ -15340,7 +15341,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>211</v>
       </c>
@@ -15357,7 +15358,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>124</v>
       </c>
@@ -15374,7 +15375,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>172</v>
       </c>
@@ -15391,7 +15392,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>5</v>
       </c>
@@ -15408,7 +15409,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>113</v>
       </c>
@@ -15425,7 +15426,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>231</v>
       </c>
@@ -15442,7 +15443,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>154</v>
       </c>
@@ -15459,7 +15460,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>172</v>
       </c>
@@ -15476,7 +15477,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>126</v>
       </c>
@@ -15493,7 +15494,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>126</v>
       </c>
@@ -15510,7 +15511,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>487</v>
       </c>
@@ -15527,7 +15528,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>211</v>
       </c>
@@ -15544,7 +15545,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>106</v>
       </c>
@@ -15561,7 +15562,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>574</v>
       </c>
@@ -15578,7 +15579,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>187</v>
       </c>
@@ -15595,7 +15596,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>988</v>
       </c>
@@ -15612,7 +15613,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>533</v>
       </c>
@@ -15629,7 +15630,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>64</v>
       </c>
@@ -15646,7 +15647,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>67</v>
       </c>
@@ -15663,7 +15664,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>247</v>
       </c>
@@ -15680,7 +15681,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>339</v>
       </c>
@@ -15697,7 +15698,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>120</v>
       </c>
@@ -15714,7 +15715,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>157</v>
       </c>
@@ -15731,7 +15732,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>106</v>
       </c>
@@ -15748,7 +15749,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>122</v>
       </c>
@@ -15765,7 +15766,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>620</v>
       </c>
@@ -15782,7 +15783,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>122</v>
       </c>
@@ -15799,7 +15800,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>641</v>
       </c>
@@ -15816,7 +15817,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>734</v>
       </c>
@@ -15833,7 +15834,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>101</v>
       </c>
@@ -15850,7 +15851,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>533</v>
       </c>
@@ -15867,7 +15868,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>216</v>
       </c>
@@ -15884,7 +15885,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>172</v>
       </c>
@@ -15901,7 +15902,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>154</v>
       </c>
@@ -15918,7 +15919,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>154</v>
       </c>
@@ -15935,7 +15936,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>13</v>
       </c>
@@ -15952,7 +15953,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>255</v>
       </c>
@@ -15969,7 +15970,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>558</v>
       </c>
@@ -15986,7 +15987,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>116</v>
       </c>
@@ -16003,7 +16004,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>473</v>
       </c>
@@ -16020,7 +16021,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>269</v>
       </c>
@@ -16037,7 +16038,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>110</v>
       </c>
@@ -16054,7 +16055,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>116</v>
       </c>
@@ -16071,7 +16072,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>49</v>
       </c>
@@ -16088,7 +16089,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>154</v>
       </c>
@@ -16105,7 +16106,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>126</v>
       </c>
@@ -16122,7 +16123,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>129</v>
       </c>
@@ -16139,7 +16140,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>172</v>
       </c>
@@ -16156,7 +16157,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>208</v>
       </c>
@@ -16173,7 +16174,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>988</v>
       </c>
@@ -16190,7 +16191,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>154</v>
       </c>
@@ -16207,7 +16208,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>229</v>
       </c>
@@ -16224,7 +16225,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>262</v>
       </c>
@@ -16241,7 +16242,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>488</v>
       </c>
@@ -16258,7 +16259,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>126</v>
       </c>
@@ -16275,7 +16276,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>620</v>
       </c>
@@ -16292,7 +16293,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>49</v>
       </c>
@@ -16309,7 +16310,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>126</v>
       </c>
@@ -16326,7 +16327,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>164</v>
       </c>
@@ -16343,7 +16344,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>231</v>
       </c>
@@ -16360,7 +16361,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>211</v>
       </c>
@@ -16377,7 +16378,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>120</v>
       </c>
@@ -16394,7 +16395,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>269</v>
       </c>
@@ -16411,7 +16412,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>110</v>
       </c>
@@ -16428,7 +16429,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>620</v>
       </c>
@@ -16445,7 +16446,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>1137</v>
       </c>
@@ -16462,7 +16463,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>54</v>
       </c>
@@ -16479,7 +16480,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>57</v>
       </c>
@@ -16496,7 +16497,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>106</v>
       </c>
@@ -16513,7 +16514,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>64</v>
       </c>
@@ -16530,7 +16531,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>110</v>
       </c>
@@ -16547,7 +16548,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>118</v>
       </c>
@@ -16564,7 +16565,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>533</v>
       </c>
@@ -16581,7 +16582,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>81</v>
       </c>
@@ -16598,7 +16599,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>208</v>
       </c>
@@ -16615,7 +16616,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>129</v>
       </c>
@@ -16632,7 +16633,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>225</v>
       </c>
@@ -16649,7 +16650,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>124</v>
       </c>
@@ -16666,7 +16667,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>262</v>
       </c>
@@ -16683,7 +16684,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>129</v>
       </c>
@@ -16700,7 +16701,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>49</v>
       </c>
@@ -16717,7 +16718,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>219</v>
       </c>
@@ -16734,7 +16735,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>126</v>
       </c>
@@ -16751,7 +16752,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>959</v>
       </c>
@@ -16768,7 +16769,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>89</v>
       </c>
@@ -16785,7 +16786,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>49</v>
       </c>
@@ -16802,7 +16803,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>76</v>
       </c>
@@ -16819,7 +16820,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>116</v>
       </c>
@@ -16836,7 +16837,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>120</v>
       </c>
@@ -16853,7 +16854,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>219</v>
       </c>
@@ -16870,7 +16871,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>46</v>
       </c>
@@ -16887,7 +16888,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>52</v>
       </c>
@@ -16904,7 +16905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>81</v>
       </c>
@@ -16921,7 +16922,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>229</v>
       </c>
@@ -16938,7 +16939,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>120</v>
       </c>
@@ -16955,7 +16956,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>398</v>
       </c>
@@ -16972,7 +16973,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>110</v>
       </c>
@@ -16989,7 +16990,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>73</v>
       </c>
@@ -17006,7 +17007,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>124</v>
       </c>
@@ -17023,7 +17024,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>78</v>
       </c>
@@ -17040,7 +17041,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>89</v>
       </c>
@@ -17057,7 +17058,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>36</v>
       </c>
@@ -17074,7 +17075,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>78</v>
       </c>
@@ -17091,7 +17092,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>19</v>
       </c>
@@ -17108,7 +17109,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>398</v>
       </c>
@@ -17125,7 +17126,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>19</v>
       </c>
@@ -17142,7 +17143,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>558</v>
       </c>
@@ -17159,7 +17160,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>49</v>
       </c>
@@ -17176,7 +17177,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>116</v>
       </c>
@@ -17193,7 +17194,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>43</v>
       </c>
@@ -17210,7 +17211,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>365</v>
       </c>
@@ -17227,7 +17228,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>533</v>
       </c>
@@ -17244,7 +17245,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>36</v>
       </c>
@@ -17261,7 +17262,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>126</v>
       </c>
@@ -17278,7 +17279,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>444</v>
       </c>
@@ -17295,7 +17296,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>208</v>
       </c>
@@ -17312,7 +17313,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>78</v>
       </c>
@@ -17329,7 +17330,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>249</v>
       </c>
@@ -17346,7 +17347,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>154</v>
       </c>
@@ -17363,7 +17364,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>78</v>
       </c>
@@ -17380,7 +17381,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>32</v>
       </c>
@@ -17397,7 +17398,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>527</v>
       </c>
@@ -17414,7 +17415,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>5</v>
       </c>
@@ -17431,7 +17432,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>78</v>
       </c>
@@ -17448,7 +17449,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>135</v>
       </c>
@@ -17465,7 +17466,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>150</v>
       </c>
@@ -17482,7 +17483,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>32</v>
       </c>
@@ -17499,7 +17500,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>120</v>
       </c>
@@ -17516,7 +17517,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>110</v>
       </c>
@@ -17533,7 +17534,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>13</v>
       </c>
@@ -17550,7 +17551,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>192</v>
       </c>
@@ -17567,7 +17568,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>154</v>
       </c>
@@ -17584,7 +17585,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>69</v>
       </c>
@@ -17601,7 +17602,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>101</v>
       </c>
@@ -17618,7 +17619,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>61</v>
       </c>
@@ -17635,7 +17636,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>216</v>
       </c>
@@ -17652,7 +17653,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>527</v>
       </c>
@@ -17669,7 +17670,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>160</v>
       </c>
@@ -17686,7 +17687,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>211</v>
       </c>
@@ -17703,7 +17704,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>54</v>
       </c>
@@ -17720,7 +17721,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>101</v>
       </c>
@@ -17737,7 +17738,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>106</v>
       </c>
@@ -17754,7 +17755,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>620</v>
       </c>
@@ -17771,7 +17772,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>244</v>
       </c>
@@ -17788,7 +17789,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>247</v>
       </c>
@@ -17805,7 +17806,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>303</v>
       </c>
@@ -17822,7 +17823,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>558</v>
       </c>
@@ -17839,7 +17840,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>13</v>
       </c>
@@ -17856,7 +17857,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>49</v>
       </c>
@@ -17873,7 +17874,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>29</v>
       </c>
@@ -17890,7 +17891,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>558</v>
       </c>
@@ -17907,7 +17908,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>132</v>
       </c>
@@ -17924,7 +17925,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>192</v>
       </c>
@@ -17941,7 +17942,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>122</v>
       </c>
@@ -17958,7 +17959,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>273</v>
       </c>
@@ -17975,7 +17976,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>110</v>
       </c>
@@ -17992,7 +17993,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>574</v>
       </c>
@@ -18009,7 +18010,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>229</v>
       </c>
@@ -18026,7 +18027,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>61</v>
       </c>
@@ -18043,7 +18044,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>78</v>
       </c>
@@ -18060,7 +18061,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>734</v>
       </c>
@@ -18077,7 +18078,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>106</v>
       </c>
@@ -18094,7 +18095,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>429</v>
       </c>
@@ -18111,7 +18112,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>16</v>
       </c>
@@ -18128,7 +18129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>69</v>
       </c>
@@ -18145,7 +18146,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>124</v>
       </c>
@@ -18162,7 +18163,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>216</v>
       </c>
@@ -18179,7 +18180,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>262</v>
       </c>
@@ -18196,7 +18197,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>200</v>
       </c>
@@ -18213,7 +18214,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>231</v>
       </c>
@@ -18230,7 +18231,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>262</v>
       </c>
@@ -18247,7 +18248,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>262</v>
       </c>
@@ -18264,7 +18265,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>219</v>
       </c>
@@ -18281,7 +18282,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>172</v>
       </c>
@@ -18298,7 +18299,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>185</v>
       </c>
@@ -18315,7 +18316,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>298</v>
       </c>
@@ -18332,7 +18333,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>222</v>
       </c>
@@ -18349,7 +18350,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>620</v>
       </c>
@@ -18366,7 +18367,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>303</v>
       </c>
@@ -18383,7 +18384,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>126</v>
       </c>
@@ -18400,7 +18401,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>251</v>
       </c>
@@ -18417,7 +18418,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>172</v>
       </c>
@@ -18434,7 +18435,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>222</v>
       </c>
@@ -18451,7 +18452,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>247</v>
       </c>
@@ -18468,7 +18469,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>286</v>
       </c>
@@ -18485,7 +18486,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>172</v>
       </c>
@@ -18502,7 +18503,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>247</v>
       </c>
@@ -18519,7 +18520,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>273</v>
       </c>
@@ -18536,7 +18537,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>262</v>
       </c>
@@ -18553,7 +18554,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>244</v>
       </c>
@@ -18570,7 +18571,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
         <v>49</v>
       </c>
@@ -18587,7 +18588,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
         <v>671</v>
       </c>
@@ -18604,7 +18605,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
         <v>754</v>
       </c>
@@ -18621,7 +18622,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
         <v>496</v>
       </c>
@@ -18638,7 +18639,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
         <v>504</v>
       </c>
@@ -18655,7 +18656,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
         <v>192</v>
       </c>
@@ -18672,7 +18673,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
         <v>269</v>
       </c>
@@ -18689,7 +18690,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
         <v>116</v>
       </c>
@@ -18706,7 +18707,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
         <v>187</v>
       </c>
@@ -18723,7 +18724,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
         <v>172</v>
       </c>
@@ -18740,7 +18741,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
         <v>620</v>
       </c>
@@ -18757,7 +18758,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
         <v>73</v>
       </c>
@@ -18774,7 +18775,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
         <v>154</v>
       </c>
@@ -18791,7 +18792,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
         <v>150</v>
       </c>
@@ -18808,7 +18809,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
         <v>120</v>
       </c>
@@ -18825,7 +18826,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
         <v>262</v>
       </c>
@@ -18842,7 +18843,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
         <v>262</v>
       </c>
@@ -18859,7 +18860,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
         <v>746</v>
       </c>
@@ -18876,7 +18877,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
         <v>743</v>
       </c>
@@ -18893,7 +18894,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
         <v>641</v>
       </c>
@@ -18910,7 +18911,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
         <v>89</v>
       </c>
@@ -18927,7 +18928,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
         <v>106</v>
       </c>
@@ -18944,7 +18945,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
         <v>533</v>
       </c>
@@ -18961,7 +18962,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
         <v>164</v>
       </c>
@@ -18978,7 +18979,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
         <v>620</v>
       </c>
@@ -18995,7 +18996,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
         <v>62</v>
       </c>
@@ -19012,7 +19013,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
         <v>89</v>
       </c>
@@ -19029,7 +19030,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
         <v>16</v>
       </c>
@@ -19046,7 +19047,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
         <v>71</v>
       </c>
@@ -19063,7 +19064,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
         <v>102</v>
       </c>
@@ -19080,7 +19081,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
         <v>137</v>
       </c>
@@ -19097,7 +19098,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
         <v>641</v>
       </c>
@@ -19114,7 +19115,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
         <v>574</v>
       </c>
@@ -19131,7 +19132,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
         <v>33</v>
       </c>
@@ -19148,7 +19149,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
         <v>213</v>
       </c>
@@ -19165,7 +19166,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
         <v>173</v>
       </c>
@@ -19182,7 +19183,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
         <v>116</v>
       </c>
@@ -19199,7 +19200,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
         <v>39</v>
       </c>
@@ -19216,7 +19217,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
         <v>205</v>
       </c>
@@ -19233,7 +19234,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
         <v>39</v>
       </c>
@@ -19250,7 +19251,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
         <v>37</v>
       </c>
@@ -19267,7 +19268,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
         <v>196</v>
       </c>
@@ -19284,7 +19285,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
         <v>39</v>
       </c>
@@ -19301,7 +19302,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
         <v>262</v>
       </c>
@@ -19318,7 +19319,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
         <v>120</v>
       </c>
@@ -19335,7 +19336,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
         <v>74</v>
       </c>
@@ -19352,7 +19353,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
         <v>157</v>
       </c>
@@ -19369,7 +19370,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
         <v>176</v>
       </c>
@@ -19386,7 +19387,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
         <v>55</v>
       </c>
@@ -19403,7 +19404,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
         <v>262</v>
       </c>
@@ -19420,7 +19421,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
         <v>44</v>
       </c>
@@ -19437,7 +19438,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
         <v>106</v>
       </c>
@@ -19454,7 +19455,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
         <v>39</v>
       </c>
@@ -19471,7 +19472,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
         <v>130</v>
       </c>
@@ -19488,7 +19489,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
         <v>41</v>
       </c>
@@ -19505,7 +19506,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
         <v>574</v>
       </c>
@@ -19522,7 +19523,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
         <v>89</v>
       </c>
@@ -19539,7 +19540,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
         <v>37</v>
       </c>
@@ -19556,7 +19557,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
         <v>130</v>
       </c>
@@ -19573,7 +19574,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
         <v>267</v>
       </c>
@@ -19590,7 +19591,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
         <v>988</v>
       </c>
@@ -19607,7 +19608,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
         <v>1067</v>
       </c>
@@ -19624,7 +19625,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
         <v>267</v>
       </c>
@@ -19641,7 +19642,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
         <v>488</v>
       </c>
@@ -19658,7 +19659,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
         <v>74</v>
       </c>
@@ -19675,7 +19676,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
         <v>130</v>
       </c>
@@ -19692,7 +19693,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
         <v>10</v>
       </c>
@@ -19709,7 +19710,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
         <v>704</v>
       </c>
@@ -19726,7 +19727,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
         <v>50</v>
       </c>
@@ -19743,7 +19744,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
         <v>504</v>
       </c>
@@ -19760,7 +19761,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
         <v>130</v>
       </c>
@@ -19777,7 +19778,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
         <v>50</v>
       </c>
@@ -19794,7 +19795,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
         <v>47</v>
       </c>
@@ -19811,7 +19812,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
         <v>29</v>
       </c>
@@ -19828,7 +19829,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
         <v>267</v>
       </c>
@@ -19845,7 +19846,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
         <v>74</v>
       </c>
@@ -19862,7 +19863,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
         <v>47</v>
       </c>
@@ -19879,7 +19880,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
         <v>47</v>
       </c>
@@ -19896,7 +19897,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
         <v>50</v>
       </c>
@@ -19913,7 +19914,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
         <v>451</v>
       </c>
@@ -19930,7 +19931,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
         <v>83</v>
       </c>
@@ -19947,7 +19948,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
         <v>55</v>
       </c>
@@ -19964,7 +19965,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
         <v>118</v>
       </c>
@@ -19981,7 +19982,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
         <v>488</v>
       </c>
@@ -19998,7 +19999,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
         <v>130</v>
       </c>
@@ -20015,7 +20016,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
         <v>267</v>
       </c>
@@ -20032,7 +20033,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
         <v>339</v>
       </c>
@@ -20049,7 +20050,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
         <v>185</v>
       </c>
@@ -20066,7 +20067,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
         <v>185</v>
       </c>
@@ -20083,7 +20084,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
         <v>50</v>
       </c>
@@ -20100,7 +20101,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
         <v>187</v>
       </c>
@@ -20117,7 +20118,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
         <v>101</v>
       </c>
@@ -20134,7 +20135,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
         <v>599</v>
       </c>
@@ -20151,7 +20152,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
         <v>124</v>
       </c>
@@ -20168,7 +20169,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
         <v>81</v>
       </c>
@@ -20185,7 +20186,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
         <v>665</v>
       </c>
@@ -20202,7 +20203,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
         <v>245</v>
       </c>
@@ -20219,7 +20220,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
         <v>71</v>
       </c>
@@ -20236,7 +20237,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
         <v>44</v>
       </c>
@@ -20253,7 +20254,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
         <v>256</v>
       </c>
@@ -20270,7 +20271,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
         <v>558</v>
       </c>
@@ -20287,7 +20288,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
         <v>29</v>
       </c>
@@ -20304,7 +20305,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
         <v>81</v>
       </c>
@@ -20321,7 +20322,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
         <v>79</v>
       </c>
@@ -20338,7 +20339,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
         <v>76</v>
       </c>
@@ -20355,7 +20356,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
         <v>890</v>
       </c>
@@ -20372,7 +20373,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
         <v>242</v>
       </c>
@@ -20389,7 +20390,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
         <v>49</v>
       </c>
@@ -20406,7 +20407,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
         <v>74</v>
       </c>
@@ -20423,7 +20424,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
         <v>236</v>
       </c>
@@ -20440,7 +20441,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
         <v>185</v>
       </c>
@@ -20457,7 +20458,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
         <v>39</v>
       </c>
@@ -20474,7 +20475,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
         <v>213</v>
       </c>
@@ -20491,7 +20492,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
         <v>245</v>
       </c>
@@ -20508,7 +20509,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
         <v>236</v>
       </c>
@@ -20525,7 +20526,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
         <v>67</v>
       </c>
@@ -20542,7 +20543,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
         <v>244</v>
       </c>
@@ -20559,7 +20560,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
         <v>101</v>
       </c>
@@ -20576,7 +20577,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="2" t="s">
         <v>50</v>
       </c>
@@ -20593,7 +20594,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
         <v>216</v>
       </c>
@@ -20610,7 +20611,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
         <v>251</v>
       </c>
@@ -20627,7 +20628,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
         <v>19</v>
       </c>
@@ -20644,7 +20645,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
         <v>81</v>
       </c>
@@ -20661,7 +20662,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
         <v>116</v>
       </c>
@@ -20678,7 +20679,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
         <v>118</v>
       </c>
@@ -20695,7 +20696,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="2" t="s">
         <v>124</v>
       </c>
@@ -20712,7 +20713,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
         <v>487</v>
       </c>
@@ -20729,7 +20730,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="2" t="s">
         <v>599</v>
       </c>
@@ -20746,7 +20747,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
         <v>472</v>
       </c>
@@ -20763,7 +20764,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
         <v>120</v>
       </c>
@@ -20780,7 +20781,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
         <v>189</v>
       </c>
@@ -20797,7 +20798,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
         <v>122</v>
       </c>
@@ -20814,7 +20815,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
         <v>189</v>
       </c>
@@ -20831,7 +20832,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
         <v>120</v>
       </c>
@@ -20848,7 +20849,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="2" t="s">
         <v>172</v>
       </c>
@@ -20865,7 +20866,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
         <v>16</v>
       </c>
@@ -20882,7 +20883,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
         <v>69</v>
       </c>
@@ -20899,7 +20900,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="2" t="s">
         <v>116</v>
       </c>
@@ -20916,7 +20917,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
         <v>269</v>
       </c>
@@ -20933,7 +20934,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="2" t="s">
         <v>62</v>
       </c>
@@ -20950,7 +20951,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="2" t="s">
         <v>154</v>
       </c>
@@ -20967,7 +20968,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="2" t="s">
         <v>751</v>
       </c>
@@ -20984,7 +20985,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="2" t="s">
         <v>269</v>
       </c>
@@ -21001,7 +21002,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="2" t="s">
         <v>64</v>
       </c>
@@ -21018,7 +21019,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="2" t="s">
         <v>135</v>
       </c>
@@ -21035,7 +21036,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="2" t="s">
         <v>1067</v>
       </c>
@@ -21052,7 +21053,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="2" t="s">
         <v>430</v>
       </c>
@@ -21069,7 +21070,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="2" t="s">
         <v>122</v>
       </c>
@@ -21086,7 +21087,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="2" t="s">
         <v>444</v>
       </c>
@@ -21103,7 +21104,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="2" t="s">
         <v>172</v>
       </c>
@@ -21120,7 +21121,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="2" t="s">
         <v>262</v>
       </c>
@@ -21137,7 +21138,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="2" t="s">
         <v>154</v>
       </c>
@@ -21154,7 +21155,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="2" t="s">
         <v>464</v>
       </c>
@@ -21171,7 +21172,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="2" t="s">
         <v>208</v>
       </c>
@@ -21188,7 +21189,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="2" t="s">
         <v>118</v>
       </c>
@@ -21205,7 +21206,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="2" t="s">
         <v>339</v>
       </c>
@@ -21222,7 +21223,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="2" t="s">
         <v>937</v>
       </c>
@@ -21239,7 +21240,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="2" t="s">
         <v>429</v>
       </c>
@@ -21256,7 +21257,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="2" t="s">
         <v>185</v>
       </c>
@@ -21273,7 +21274,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="2" t="s">
         <v>69</v>
       </c>
@@ -21290,7 +21291,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="2" t="s">
         <v>116</v>
       </c>
@@ -21307,7 +21308,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="2" t="s">
         <v>429</v>
       </c>
@@ -21324,7 +21325,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="2" t="s">
         <v>472</v>
       </c>
@@ -21341,7 +21342,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="2" t="s">
         <v>16</v>
       </c>
@@ -21358,7 +21359,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="2" t="s">
         <v>220</v>
       </c>
@@ -21375,7 +21376,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="2" t="s">
         <v>262</v>
       </c>
@@ -21392,7 +21393,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="2" t="s">
         <v>137</v>
       </c>
@@ -21409,7 +21410,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="2" t="s">
         <v>157</v>
       </c>
@@ -21426,7 +21427,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" s="2" t="s">
         <v>306</v>
       </c>
@@ -21443,7 +21444,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" s="2" t="s">
         <v>154</v>
       </c>
@@ -21460,7 +21461,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="2" t="s">
         <v>432</v>
       </c>
@@ -21477,7 +21478,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="2" t="s">
         <v>200</v>
       </c>
@@ -21494,7 +21495,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="2" t="s">
         <v>380</v>
       </c>
@@ -21511,7 +21512,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="2" t="s">
         <v>929</v>
       </c>
@@ -21528,7 +21529,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="2" t="s">
         <v>454</v>
       </c>
@@ -21545,7 +21546,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" s="2" t="s">
         <v>132</v>
       </c>
@@ -21562,7 +21563,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" s="2" t="s">
         <v>36</v>
       </c>
@@ -21579,7 +21580,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="2" t="s">
         <v>106</v>
       </c>
@@ -21596,7 +21597,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" s="2" t="s">
         <v>86</v>
       </c>
@@ -21613,7 +21614,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="2" t="s">
         <v>61</v>
       </c>
@@ -21630,7 +21631,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="2" t="s">
         <v>94</v>
       </c>
@@ -21647,7 +21648,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" s="2" t="s">
         <v>19</v>
       </c>
@@ -21664,7 +21665,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="2" t="s">
         <v>882</v>
       </c>
@@ -21681,7 +21682,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="2" t="s">
         <v>398</v>
       </c>
@@ -21698,7 +21699,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="2" t="s">
         <v>885</v>
       </c>
@@ -21715,7 +21716,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="2" t="s">
         <v>43</v>
       </c>
@@ -21732,7 +21733,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" s="2" t="s">
         <v>365</v>
       </c>
@@ -21749,7 +21750,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="2" t="s">
         <v>885</v>
       </c>
@@ -21766,7 +21767,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="2" t="s">
         <v>916</v>
       </c>
@@ -21783,7 +21784,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="2" t="s">
         <v>851</v>
       </c>
@@ -21800,7 +21801,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="2" t="s">
         <v>872</v>
       </c>
@@ -21817,7 +21818,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="2" t="s">
         <v>910</v>
       </c>
@@ -21834,7 +21835,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="2" t="s">
         <v>863</v>
       </c>
@@ -21851,7 +21852,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="2" t="s">
         <v>6</v>
       </c>
@@ -21868,7 +21869,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="2" t="s">
         <v>6</v>
       </c>
@@ -21885,7 +21886,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="2" t="s">
         <v>326</v>
       </c>
@@ -21902,7 +21903,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="2" t="s">
         <v>6</v>
       </c>
@@ -21919,7 +21920,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="2" t="s">
         <v>6</v>
       </c>
@@ -21936,7 +21937,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="2" t="s">
         <v>323</v>
       </c>
@@ -21953,7 +21954,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="2" t="s">
         <v>6</v>
       </c>
@@ -21970,7 +21971,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="2" t="s">
         <v>6</v>
       </c>
@@ -21987,7 +21988,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="2" t="s">
         <v>501</v>
       </c>
@@ -22004,7 +22005,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="2" t="s">
         <v>6</v>
       </c>
@@ -22021,7 +22022,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="2" t="s">
         <v>6</v>
       </c>
@@ -22038,7 +22039,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="2" t="s">
         <v>6</v>
       </c>
@@ -22055,7 +22056,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="2" t="s">
         <v>6</v>
       </c>
@@ -22072,7 +22073,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="2" t="s">
         <v>6</v>
       </c>
@@ -22089,7 +22090,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="2" t="s">
         <v>6</v>
       </c>
@@ -22106,7 +22107,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="2" t="s">
         <v>501</v>
       </c>
@@ -22123,7 +22124,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="2" t="s">
         <v>323</v>
       </c>
@@ -22140,7 +22141,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="2" t="s">
         <v>99</v>
       </c>
@@ -22157,7 +22158,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="2" t="s">
         <v>408</v>
       </c>
@@ -22174,7 +22175,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="2" t="s">
         <v>1023</v>
       </c>
@@ -22191,7 +22192,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="2" t="s">
         <v>87</v>
       </c>
@@ -22208,7 +22209,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" s="2" t="s">
         <v>1002</v>
       </c>
@@ -22225,7 +22226,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="2" t="s">
         <v>417</v>
       </c>
@@ -22242,7 +22243,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" s="2" t="s">
         <v>326</v>
       </c>
@@ -22259,7 +22260,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="2" t="s">
         <v>510</v>
       </c>
@@ -22276,7 +22277,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="2" t="s">
         <v>1019</v>
       </c>
@@ -22293,7 +22294,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="2" t="s">
         <v>1002</v>
       </c>
@@ -22310,7 +22311,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="2" t="s">
         <v>330</v>
       </c>
@@ -22327,7 +22328,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="2" t="s">
         <v>422</v>
       </c>
@@ -22344,7 +22345,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" s="2" t="s">
         <v>414</v>
       </c>
@@ -22361,7 +22362,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="2" t="s">
         <v>721</v>
       </c>
@@ -22378,7 +22379,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="2" t="s">
         <v>723</v>
       </c>
@@ -22395,7 +22396,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="2" t="s">
         <v>350</v>
       </c>
@@ -22412,7 +22413,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="2" t="s">
         <v>728</v>
       </c>
@@ -22429,7 +22430,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="2" t="s">
         <v>916</v>
       </c>
@@ -22446,7 +22447,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="2" t="s">
         <v>408</v>
       </c>
@@ -22463,7 +22464,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="2" t="s">
         <v>490</v>
       </c>
@@ -22480,7 +22481,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="2" t="s">
         <v>392</v>
       </c>
@@ -22497,7 +22498,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="2" t="s">
         <v>731</v>
       </c>
@@ -22514,7 +22515,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="2" t="s">
         <v>368</v>
       </c>
@@ -22531,7 +22532,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="2" t="s">
         <v>738</v>
       </c>
@@ -22548,7 +22549,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="2" t="s">
         <v>401</v>
       </c>
@@ -22565,7 +22566,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="2" t="s">
         <v>350</v>
       </c>
@@ -22582,7 +22583,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="2" t="s">
         <v>715</v>
       </c>
@@ -22599,7 +22600,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="2" t="s">
         <v>925</v>
       </c>
@@ -22616,7 +22617,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="2" t="s">
         <v>375</v>
       </c>
@@ -22633,7 +22634,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="2" t="s">
         <v>717</v>
       </c>
@@ -22650,7 +22651,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="2" t="s">
         <v>375</v>
       </c>
@@ -22667,7 +22668,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="2" t="s">
         <v>359</v>
       </c>
@@ -22684,7 +22685,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="2" t="s">
         <v>708</v>
       </c>
@@ -22701,7 +22702,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="2" t="s">
         <v>736</v>
       </c>
@@ -22718,7 +22719,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="2" t="s">
         <v>851</v>
       </c>
@@ -22735,7 +22736,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" s="2" t="s">
         <v>6</v>
       </c>
@@ -22752,7 +22753,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="2" t="s">
         <v>872</v>
       </c>
@@ -22769,7 +22770,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="2" t="s">
         <v>851</v>
       </c>
@@ -22786,7 +22787,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="2" t="s">
         <v>578</v>
       </c>
@@ -22803,7 +22804,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="2" t="s">
         <v>910</v>
       </c>
@@ -22820,7 +22821,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="2" t="s">
         <v>92</v>
       </c>
@@ -22837,7 +22838,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="2" t="s">
         <v>580</v>
       </c>
@@ -22854,7 +22855,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="2" t="s">
         <v>859</v>
       </c>
@@ -22871,7 +22872,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="2" t="s">
         <v>746</v>
       </c>
@@ -22888,7 +22889,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="2" t="s">
         <v>865</v>
       </c>
@@ -22905,7 +22906,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="2" t="s">
         <v>67</v>
       </c>
@@ -22922,7 +22923,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="2" t="s">
         <v>54</v>
       </c>
@@ -22943,7 +22944,7 @@
   <autoFilter ref="A1:E726">
     <filterColumn colId="1">
       <filters>
-        <filter val="511"/>
+        <filter val="4294967295"/>
       </filters>
     </filterColumn>
   </autoFilter>
